--- a/notebook-tests/EDA/UP Data Science Society AY2324A/Logistics Internship.xlsx
+++ b/notebook-tests/EDA/UP Data Science Society AY2324A/Logistics Internship.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="444" uniqueCount="251">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="459" uniqueCount="260">
   <si>
     <t>Email Address</t>
   </si>
@@ -774,13 +774,40 @@
   </si>
   <si>
     <t>facebook.com/keanobp</t>
+  </si>
+  <si>
+    <t>rfgalicia@up.edu.ph</t>
+  </si>
+  <si>
+    <t>Galicia</t>
+  </si>
+  <si>
+    <t>Raymund Glor</t>
+  </si>
+  <si>
+    <t>Mund</t>
+  </si>
+  <si>
+    <t>2022-22282</t>
+  </si>
+  <si>
+    <t>mundiegalicia@gmail.com</t>
+  </si>
+  <si>
+    <t>0969 315 2029</t>
+  </si>
+  <si>
+    <t>NA</t>
+  </si>
+  <si>
+    <t>facebook.com/kingraymund17</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -793,6 +820,27 @@
       <sz val="11"/>
       <name val="Calibri"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -802,7 +850,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -825,17 +873,47 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1136,13 +1214,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P30"/>
+  <dimension ref="A1:P31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="O1" workbookViewId="0">
-      <selection activeCell="Q19" sqref="Q19"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="G29" sqref="G29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="29.5546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.6640625" bestFit="1" customWidth="1"/>
@@ -1162,7 +1240,7 @@
     <col min="16" max="16" width="26.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1212,7 +1290,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:16" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>94</v>
       </c>
@@ -1263,7 +1341,7 @@
         <v>Anne Cerise Evangelista</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:16" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>197</v>
       </c>
@@ -1310,11 +1388,11 @@
         <v>29</v>
       </c>
       <c r="P3" t="str">
-        <f t="shared" ref="P3:P30" si="0">CONCATENATE(C3," ",B3)</f>
+        <f>CONCATENATE(C3," ",B3)</f>
         <v>Auldrin Keith Domingo</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:16" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>46</v>
       </c>
@@ -1361,11 +1439,11 @@
         <v>29</v>
       </c>
       <c r="P4" t="str">
-        <f t="shared" si="0"/>
+        <f>CONCATENATE(C4," ",B4)</f>
         <v>Bazer Timothy Nuñez</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:16" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>189</v>
       </c>
@@ -1412,11 +1490,11 @@
         <v>29</v>
       </c>
       <c r="P5" t="str">
-        <f t="shared" si="0"/>
+        <f>CONCATENATE(C5," ",B5)</f>
         <v>Dennis Angelo Pablico</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:16" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>110</v>
       </c>
@@ -1463,11 +1541,11 @@
         <v>29</v>
       </c>
       <c r="P6" t="str">
-        <f t="shared" si="0"/>
+        <f>CONCATENATE(C6," ",B6)</f>
         <v>Elaine Pelicano</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:16" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>38</v>
       </c>
@@ -1514,11 +1592,11 @@
         <v>29</v>
       </c>
       <c r="P7" t="str">
-        <f t="shared" si="0"/>
+        <f>CONCATENATE(C7," ",B7)</f>
         <v>Eivy Jones Bucalin</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:16" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>142</v>
       </c>
@@ -1565,11 +1643,11 @@
         <v>29</v>
       </c>
       <c r="P8" t="str">
-        <f t="shared" si="0"/>
+        <f>CONCATENATE(C8," ",B8)</f>
         <v>Faye Angelyn  Caya</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:16" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>221</v>
       </c>
@@ -1613,11 +1691,11 @@
         <v>228</v>
       </c>
       <c r="P9" t="str">
-        <f t="shared" si="0"/>
+        <f>CONCATENATE(C9," ",B9)</f>
         <v>Ivann Xavier Sicam</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:16" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>118</v>
       </c>
@@ -1664,11 +1742,11 @@
         <v>29</v>
       </c>
       <c r="P10" t="str">
-        <f t="shared" si="0"/>
+        <f>CONCATENATE(C10," ",B10)</f>
         <v>Jericho Trio</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:16" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>213</v>
       </c>
@@ -1715,11 +1793,11 @@
         <v>29</v>
       </c>
       <c r="P11" t="str">
-        <f t="shared" si="0"/>
+        <f>CONCATENATE(C11," ",B11)</f>
         <v>Jaslyn Giel Wee</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:16" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>30</v>
       </c>
@@ -1766,11 +1844,11 @@
         <v>29</v>
       </c>
       <c r="P12" t="str">
-        <f t="shared" si="0"/>
+        <f>CONCATENATE(C12," ",B12)</f>
         <v>Jesse Biliran</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:16" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>16</v>
       </c>
@@ -1817,11 +1895,11 @@
         <v>29</v>
       </c>
       <c r="P13" t="str">
-        <f t="shared" si="0"/>
+        <f>CONCATENATE(C13," ",B13)</f>
         <v>Jacqueline Carpio</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:16" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>165</v>
       </c>
@@ -1868,11 +1946,11 @@
         <v>29</v>
       </c>
       <c r="P14" t="str">
-        <f t="shared" si="0"/>
+        <f>CONCATENATE(C14," ",B14)</f>
         <v>Jerah Bernard Eusebio</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:16" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>173</v>
       </c>
@@ -1919,11 +1997,11 @@
         <v>29</v>
       </c>
       <c r="P15" t="str">
-        <f t="shared" si="0"/>
+        <f>CONCATENATE(C15," ",B15)</f>
         <v>Joanamae Cadampog</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:16" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>229</v>
       </c>
@@ -1970,11 +2048,11 @@
         <v>29</v>
       </c>
       <c r="P16" t="str">
-        <f t="shared" si="0"/>
+        <f>CONCATENATE(C16," ",B16)</f>
         <v>Catherine Romero</v>
       </c>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:16" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>78</v>
       </c>
@@ -2021,11 +2099,11 @@
         <v>29</v>
       </c>
       <c r="P17" t="str">
-        <f t="shared" si="0"/>
+        <f>CONCATENATE(C17," ",B17)</f>
         <v>Keanu John Pelitro</v>
       </c>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:16" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>245</v>
       </c>
@@ -2066,11 +2144,11 @@
         <v>29</v>
       </c>
       <c r="P18" t="str">
-        <f t="shared" si="0"/>
+        <f>CONCATENATE(C18," ",B18)</f>
         <v>Keano Pastrana</v>
       </c>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:16" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>150</v>
       </c>
@@ -2117,11 +2195,11 @@
         <v>29</v>
       </c>
       <c r="P19" t="str">
-        <f t="shared" si="0"/>
+        <f>CONCATENATE(C19," ",B19)</f>
         <v>Keina Ayra De Guia</v>
       </c>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:16" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>158</v>
       </c>
@@ -2165,11 +2243,11 @@
         <v>29</v>
       </c>
       <c r="P20" t="str">
-        <f t="shared" si="0"/>
+        <f>CONCATENATE(C20," ",B20)</f>
         <v>Kendrick  Huang</v>
       </c>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:16" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>54</v>
       </c>
@@ -2216,11 +2294,11 @@
         <v>29</v>
       </c>
       <c r="P21" t="str">
-        <f t="shared" si="0"/>
+        <f>CONCATENATE(C21," ",B21)</f>
         <v>Lhoel Adrianne Busano</v>
       </c>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:16" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>205</v>
       </c>
@@ -2267,11 +2345,11 @@
         <v>29</v>
       </c>
       <c r="P22" t="str">
-        <f t="shared" si="0"/>
+        <f>CONCATENATE(C22," ",B22)</f>
         <v>Lear Jet De La Cruz</v>
       </c>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:16" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
         <v>62</v>
       </c>
@@ -2318,11 +2396,11 @@
         <v>29</v>
       </c>
       <c r="P23" t="str">
-        <f t="shared" si="0"/>
+        <f>CONCATENATE(C23," ",B23)</f>
         <v>Mary Arnie Aringay</v>
       </c>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:16" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
         <v>237</v>
       </c>
@@ -2366,11 +2444,11 @@
         <v>29</v>
       </c>
       <c r="P24" t="str">
-        <f t="shared" si="0"/>
+        <f>CONCATENATE(C24," ",B24)</f>
         <v>Yuan Labuguen</v>
       </c>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:16" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
         <v>86</v>
       </c>
@@ -2417,11 +2495,11 @@
         <v>29</v>
       </c>
       <c r="P25" t="str">
-        <f t="shared" si="0"/>
+        <f>CONCATENATE(C25," ",B25)</f>
         <v>Maria Stephanie Jean Sagsagat</v>
       </c>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:16" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
         <v>126</v>
       </c>
@@ -2468,11 +2546,11 @@
         <v>29</v>
       </c>
       <c r="P26" t="str">
-        <f t="shared" si="0"/>
+        <f>CONCATENATE(C26," ",B26)</f>
         <v>Miah Deza Rey Goti-Ay</v>
       </c>
     </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:16" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
         <v>134</v>
       </c>
@@ -2519,11 +2597,11 @@
         <v>29</v>
       </c>
       <c r="P27" t="str">
-        <f t="shared" si="0"/>
+        <f>CONCATENATE(C27," ",B27)</f>
         <v>Myles Arvin Manalangsang</v>
       </c>
     </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:16" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
         <v>181</v>
       </c>
@@ -2570,109 +2648,160 @@
         <v>29</v>
       </c>
       <c r="P28" t="str">
-        <f t="shared" si="0"/>
+        <f>CONCATENATE(C28," ",B28)</f>
         <v>Reynald John Sevilla</v>
       </c>
     </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A29" s="1" t="s">
+    <row r="29" spans="1:16" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="6" t="s">
+        <v>251</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>252</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>253</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>254</v>
+      </c>
+      <c r="E29" s="3" t="s">
+        <v>255</v>
+      </c>
+      <c r="F29" s="3" t="s">
+        <v>256</v>
+      </c>
+      <c r="G29" s="5" t="s">
+        <v>259</v>
+      </c>
+      <c r="H29" s="3" t="s">
+        <v>257</v>
+      </c>
+      <c r="I29" s="3" t="s">
+        <v>243</v>
+      </c>
+      <c r="J29" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="K29" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="L29" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="M29" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="N29" s="3" t="s">
+        <v>258</v>
+      </c>
+      <c r="O29" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="P29" t="str">
+        <f>CONCATENATE(C29," ",B29)</f>
+        <v>Raymund Glor Galicia</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A30" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="B29" t="s">
+      <c r="B30" t="s">
         <v>71</v>
       </c>
-      <c r="C29" t="s">
+      <c r="C30" t="s">
         <v>72</v>
       </c>
-      <c r="D29" t="s">
+      <c r="D30" t="s">
         <v>73</v>
       </c>
-      <c r="E29" t="s">
+      <c r="E30" t="s">
         <v>74</v>
       </c>
-      <c r="F29" t="s">
+      <c r="F30" t="s">
         <v>70</v>
       </c>
-      <c r="G29" t="s">
+      <c r="G30" t="s">
         <v>75</v>
       </c>
-      <c r="H29" t="s">
+      <c r="H30" t="s">
         <v>76</v>
       </c>
-      <c r="I29" t="s">
-        <v>24</v>
-      </c>
-      <c r="J29" t="s">
-        <v>27</v>
-      </c>
-      <c r="K29" t="s">
+      <c r="I30" t="s">
+        <v>24</v>
+      </c>
+      <c r="J30" t="s">
+        <v>27</v>
+      </c>
+      <c r="K30" t="s">
         <v>23</v>
       </c>
-      <c r="L29" t="s">
-        <v>26</v>
-      </c>
-      <c r="M29" t="s">
-        <v>25</v>
-      </c>
-      <c r="N29" t="s">
+      <c r="L30" t="s">
+        <v>26</v>
+      </c>
+      <c r="M30" t="s">
+        <v>25</v>
+      </c>
+      <c r="N30" t="s">
         <v>77</v>
-      </c>
-      <c r="O29" t="s">
-        <v>29</v>
-      </c>
-      <c r="P29" t="str">
-        <f t="shared" si="0"/>
-        <v>Roniel Chester Payos</v>
-      </c>
-    </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A30" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="B30" t="s">
-        <v>103</v>
-      </c>
-      <c r="C30" t="s">
-        <v>104</v>
-      </c>
-      <c r="D30" t="s">
-        <v>105</v>
-      </c>
-      <c r="E30" t="s">
-        <v>106</v>
-      </c>
-      <c r="F30" t="s">
-        <v>102</v>
-      </c>
-      <c r="G30" t="s">
-        <v>107</v>
-      </c>
-      <c r="H30" t="s">
-        <v>108</v>
-      </c>
-      <c r="I30" t="s">
-        <v>23</v>
-      </c>
-      <c r="J30" t="s">
-        <v>26</v>
-      </c>
-      <c r="K30" t="s">
-        <v>27</v>
-      </c>
-      <c r="L30" t="s">
-        <v>25</v>
-      </c>
-      <c r="M30" t="s">
-        <v>24</v>
-      </c>
-      <c r="N30" t="s">
-        <v>109</v>
       </c>
       <c r="O30" t="s">
         <v>29</v>
       </c>
       <c r="P30" t="str">
-        <f t="shared" si="0"/>
+        <f>CONCATENATE(C30," ",B30)</f>
+        <v>Roniel Chester Payos</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A31" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="C31" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="D31" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="E31" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="F31" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="G31" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="H31" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="I31" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="J31" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="K31" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="L31" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="M31" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="N31" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="O31" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="P31" t="str">
+        <f>CONCATENATE(C31," ",B31)</f>
         <v>Timothy James Cipriano</v>
       </c>
     </row>
@@ -2680,6 +2809,10 @@
   <sortState ref="A2:P31">
     <sortCondition ref="A2"/>
   </sortState>
+  <hyperlinks>
+    <hyperlink ref="G29" r:id="rId1" display="http://faceboo.com/kingraymund17"/>
+  </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>